--- a/data/trans_orig/P14B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A12D9E-D3BA-4053-B3CD-B78F10D90870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88269EF7-EAB2-4281-BFBD-E43461DC8C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{885CC568-81A0-4510-9A5C-C553D463781D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA6FCFB0-D66B-464A-BF6B-B59433DF42FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="221">
   <si>
     <t>Población cuyo cáncer le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -76,240 +76,240 @@
     <t>34,6%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
     <t>38,27%</t>
   </si>
   <si>
@@ -490,205 +490,217 @@
     <t>57,08%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
     <t>38,09%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>59,22%</t>
   </si>
   <si>
     <t>46,92%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>50,84%</t>
   </si>
   <si>
-    <t>64,26%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>53,08%</t>
   </si>
   <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>49,16%</t>
   </si>
   <si>
-    <t>35,74%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>79,21%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A89EF1-468E-4EB2-9040-AF75BDB16994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC05E-6A88-4E67-9458-C4E9C769876B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1257,16 +1269,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -1275,13 +1287,13 @@
         <v>11501</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -1290,13 +1302,13 @@
         <v>19500</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -1305,13 +1317,13 @@
         <v>31001</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,13 +1338,13 @@
         <v>17585</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -1341,13 +1353,13 @@
         <v>36056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -1356,18 +1368,18 @@
         <v>53641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1379,13 +1391,13 @@
         <v>12695</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1394,13 +1406,13 @@
         <v>18162</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -1409,19 +1421,19 @@
         <v>30857</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1430,13 +1442,13 @@
         <v>6768</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1445,13 +1457,13 @@
         <v>9264</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -1460,13 +1472,13 @@
         <v>16032</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,13 +1493,13 @@
         <v>19463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -1496,13 +1508,13 @@
         <v>27426</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -1511,18 +1523,18 @@
         <v>46889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1534,13 +1546,13 @@
         <v>2117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1549,13 +1561,13 @@
         <v>2009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1564,19 +1576,19 @@
         <v>4126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1585,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1600,13 +1612,13 @@
         <v>2303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1615,13 +1627,13 @@
         <v>2303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1648,13 @@
         <v>2117</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1651,13 +1663,13 @@
         <v>4312</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -1666,13 +1678,13 @@
         <v>6429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,13 +1701,13 @@
         <v>20895</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1704,13 +1716,13 @@
         <v>36728</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -1719,19 +1731,19 @@
         <v>57623</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -1740,13 +1752,13 @@
         <v>18270</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -1755,13 +1767,13 @@
         <v>31066</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -1770,13 +1782,13 @@
         <v>49336</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1803,13 @@
         <v>39165</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>61</v>
@@ -1806,13 +1818,13 @@
         <v>67794</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>97</v>
@@ -1821,18 +1833,18 @@
         <v>106959</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6337068E-C334-43F1-B514-6C4F732F68FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA21BA4-3595-4A5C-B6BE-F39B372C387A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1868,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1975,13 +1987,13 @@
         <v>5107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -1990,13 +2002,13 @@
         <v>17492</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2005,19 +2017,19 @@
         <v>22599</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>9</v>
@@ -2026,7 +2038,7 @@
         <v>8697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>90</v>
@@ -2077,13 +2089,13 @@
         <v>13804</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -2092,13 +2104,13 @@
         <v>27798</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -2107,18 +2119,18 @@
         <v>41602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2172,7 +2184,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -2232,13 +2244,13 @@
         <v>13267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -2247,13 +2259,13 @@
         <v>25676</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -2262,18 +2274,18 @@
         <v>38943</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2288,10 +2300,10 @@
         <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2327,7 +2339,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2339,10 +2351,10 @@
         <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2387,13 +2399,13 @@
         <v>2663</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -2402,13 +2414,13 @@
         <v>17677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2417,13 +2429,13 @@
         <v>20340</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2494,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>14</v>
@@ -2542,13 +2554,13 @@
         <v>29734</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -2557,13 +2569,13 @@
         <v>71150</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -2572,18 +2584,18 @@
         <v>100884</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F754F9-9D55-4C82-8E36-48C9C6B5383F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECC5C46-59D7-4E56-9F81-9691C3BE8ABB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,13 +2774,13 @@
         <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>11</v>
@@ -2777,13 +2789,13 @@
         <v>7447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -2792,13 +2804,13 @@
         <v>18049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -2807,13 +2819,13 @@
         <v>25496</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2840,13 @@
         <v>17352</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>64</v>
@@ -2843,13 +2855,13 @@
         <v>36118</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -2858,18 +2870,18 @@
         <v>53471</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2881,13 +2893,13 @@
         <v>18515</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -2896,13 +2908,13 @@
         <v>20081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2911,19 +2923,19 @@
         <v>38596</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -2932,13 +2944,13 @@
         <v>20946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2947,13 +2959,13 @@
         <v>19414</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -2962,13 +2974,13 @@
         <v>40360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2995,13 @@
         <v>39461</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>67</v>
@@ -2998,13 +3010,13 @@
         <v>39495</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>113</v>
@@ -3013,18 +3025,18 @@
         <v>78956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3036,13 +3048,13 @@
         <v>3567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3051,13 +3063,13 @@
         <v>6095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3066,19 +3078,19 @@
         <v>9663</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>18</v>
@@ -3087,13 +3099,13 @@
         <v>13595</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3102,13 +3114,13 @@
         <v>4370</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -3117,13 +3129,13 @@
         <v>17964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3150,13 @@
         <v>17162</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -3153,13 +3165,13 @@
         <v>10465</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -3168,13 +3180,13 @@
         <v>27627</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3203,13 @@
         <v>31987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -3206,13 +3218,13 @@
         <v>44246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -3221,19 +3233,19 @@
         <v>76233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>55</v>
@@ -3242,13 +3254,13 @@
         <v>41988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -3257,13 +3269,13 @@
         <v>41832</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -3272,13 +3284,13 @@
         <v>83820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3305,13 @@
         <v>73975</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>148</v>
@@ -3308,13 +3320,13 @@
         <v>86078</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>243</v>
@@ -3323,18 +3335,18 @@
         <v>160053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88269EF7-EAB2-4281-BFBD-E43461DC8C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEED23AF-B55C-4269-AA2F-4AD0880478A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA6FCFB0-D66B-464A-BF6B-B59433DF42FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC548659-A315-427B-8B42-3AB10B140337}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="223">
   <si>
     <t>Población cuyo cáncer le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>34,6%</t>
   </si>
   <si>
-    <t>11,98%</t>
+    <t>15,3%</t>
   </si>
   <si>
     <t>58,95%</t>
@@ -85,16 +85,19 @@
     <t>45,92%</t>
   </si>
   <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
   </si>
   <si>
     <t>42,21%</t>
   </si>
   <si>
-    <t>56,28%</t>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,22 +109,25 @@
     <t>41,05%</t>
   </si>
   <si>
-    <t>88,02%</t>
+    <t>84,7%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>43,72%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,55 +139,55 @@
     <t>65,22%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>65,81%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
   </si>
   <si>
     <t>33,78%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>34,19%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,7 +208,7 @@
     <t>64,18%</t>
   </si>
   <si>
-    <t>15,88%</t>
+    <t>15,21%</t>
   </si>
   <si>
     <t>0%</t>
@@ -217,175 +223,175 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>84,12%</t>
+    <t>84,79%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>53,87%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>46,65%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población cuyo cáncer le limita en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>47,75%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>55,5%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>52,25%</t>
   </si>
   <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
   </si>
   <si>
     <t>63,82%</t>
@@ -394,19 +400,19 @@
     <t>76,28%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>36,18%</t>
@@ -415,73 +421,73 @@
     <t>23,72%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
   <si>
     <t>25,35%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>54,34%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
@@ -1112,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC05E-6A88-4E67-9458-C4E9C769876B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5023E7-6484-4382-9BE0-33E5A469D8D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1269,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -1287,13 +1293,13 @@
         <v>11501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -1302,13 +1308,13 @@
         <v>19500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -1317,13 +1323,13 @@
         <v>31001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,13 +1344,13 @@
         <v>17585</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -1353,13 +1359,13 @@
         <v>36056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -1368,18 +1374,18 @@
         <v>53641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1391,13 +1397,13 @@
         <v>12695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1406,13 +1412,13 @@
         <v>18162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -1421,19 +1427,19 @@
         <v>30857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1442,13 +1448,13 @@
         <v>6768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1457,13 +1463,13 @@
         <v>9264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -1472,13 +1478,13 @@
         <v>16032</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,13 +1499,13 @@
         <v>19463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -1508,13 +1514,13 @@
         <v>27426</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -1523,18 +1529,18 @@
         <v>46889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1546,13 +1552,13 @@
         <v>2117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1561,13 +1567,13 @@
         <v>2009</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1576,19 +1582,19 @@
         <v>4126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1597,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1612,13 +1618,13 @@
         <v>2303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1627,13 +1633,13 @@
         <v>2303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,13 +1654,13 @@
         <v>2117</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1663,13 +1669,13 @@
         <v>4312</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -1678,13 +1684,13 @@
         <v>6429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,28 +1707,28 @@
         <v>20895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>36728</v>
+        <v>36727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -1731,19 +1737,19 @@
         <v>57623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -1752,13 +1758,13 @@
         <v>18270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -1767,13 +1773,13 @@
         <v>31066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -1782,13 +1788,13 @@
         <v>49336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,28 +1809,28 @@
         <v>39165</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>67794</v>
+        <v>67793</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>97</v>
@@ -1833,18 +1839,18 @@
         <v>106959</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA21BA4-3595-4A5C-B6BE-F39B372C387A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B34464B-A973-466F-8BA2-50FFD21252CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1880,7 +1886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1987,13 +1993,13 @@
         <v>5107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2002,13 +2008,13 @@
         <v>17492</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2017,19 +2023,19 @@
         <v>22599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>9</v>
@@ -2038,13 +2044,13 @@
         <v>8697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -2053,13 +2059,13 @@
         <v>10306</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -2068,13 +2074,13 @@
         <v>19003</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2095,13 @@
         <v>13804</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -2104,13 +2110,13 @@
         <v>27798</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -2119,18 +2125,18 @@
         <v>41602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2142,13 +2148,13 @@
         <v>9352</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2157,13 +2163,13 @@
         <v>12261</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -2172,19 +2178,19 @@
         <v>21613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -2193,13 +2199,13 @@
         <v>3915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2208,13 +2214,13 @@
         <v>13415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -2223,13 +2229,13 @@
         <v>17330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2250,13 @@
         <v>13267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -2259,13 +2265,13 @@
         <v>25676</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -2274,18 +2280,18 @@
         <v>38943</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2297,13 +2303,13 @@
         <v>1699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2312,13 +2318,13 @@
         <v>13484</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2327,19 +2333,19 @@
         <v>15184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2348,13 +2354,13 @@
         <v>964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2363,13 +2369,13 @@
         <v>4193</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2378,13 +2384,13 @@
         <v>5156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>2663</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -2414,13 +2420,13 @@
         <v>17677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2429,13 +2435,13 @@
         <v>20340</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2458,13 @@
         <v>16158</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2467,34 +2473,34 @@
         <v>43237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>59395</v>
+        <v>59396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>14</v>
@@ -2503,13 +2509,13 @@
         <v>13576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -2518,13 +2524,13 @@
         <v>27913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -2533,13 +2539,13 @@
         <v>41489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2560,13 @@
         <v>29734</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -2569,33 +2575,33 @@
         <v>71150</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECC5C46-59D7-4E56-9F81-9691C3BE8ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2C39AD-CC2F-459A-AB05-049CB86924AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2631,7 +2637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2738,13 +2744,13 @@
         <v>9905</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2753,13 +2759,13 @@
         <v>18069</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2768,19 +2774,19 @@
         <v>27975</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>11</v>
@@ -2789,13 +2795,13 @@
         <v>7447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -2804,13 +2810,13 @@
         <v>18049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -2819,13 +2825,13 @@
         <v>25496</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2846,13 @@
         <v>17352</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>64</v>
@@ -2855,13 +2861,13 @@
         <v>36118</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -2870,18 +2876,18 @@
         <v>53471</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2893,13 +2899,13 @@
         <v>18515</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -2908,13 +2914,13 @@
         <v>20081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2923,19 +2929,19 @@
         <v>38596</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -2944,13 +2950,13 @@
         <v>20946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2959,13 +2965,13 @@
         <v>19414</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -2974,13 +2980,13 @@
         <v>40360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3001,13 @@
         <v>39461</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>67</v>
@@ -3010,13 +3016,13 @@
         <v>39495</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>113</v>
@@ -3025,18 +3031,18 @@
         <v>78956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3048,13 +3054,13 @@
         <v>3567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3063,13 +3069,13 @@
         <v>6095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3078,19 +3084,19 @@
         <v>9663</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>18</v>
@@ -3099,13 +3105,13 @@
         <v>13595</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3114,13 +3120,13 @@
         <v>4370</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -3129,13 +3135,13 @@
         <v>17964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3156,13 @@
         <v>17162</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -3165,13 +3171,13 @@
         <v>10465</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -3180,13 +3186,13 @@
         <v>27627</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3209,13 @@
         <v>31987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -3218,13 +3224,13 @@
         <v>44246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -3233,19 +3239,19 @@
         <v>76233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>55</v>
@@ -3254,13 +3260,13 @@
         <v>41988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -3269,13 +3275,13 @@
         <v>41832</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -3284,13 +3290,13 @@
         <v>83820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3311,13 @@
         <v>73975</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>148</v>
@@ -3320,13 +3326,13 @@
         <v>86078</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>243</v>
@@ -3335,18 +3341,18 @@
         <v>160053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
